--- a/2025-10-18/18_olbg_fixtures.xlsx
+++ b/2025-10-18/18_olbg_fixtures.xlsx
@@ -473,12 +473,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Nottm Forest v Chelsea</t>
+          <t>Fulham v Arsenal</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -488,145 +488,145 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-10-18T11:30:00.000Z</t>
+          <t>2025-10-18T16:30:00.000Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>54/73 Win Tips</t>
+          <t>88/113 Win Tips</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>78</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.50</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Man City v Everton</t>
+          <t>Torino v Napoli</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>England Premier League</t>
+          <t>Italy Serie A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-10-18T14:00:00.000Z</t>
+          <t>2025-10-18T16:00:00.000Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>53/69 Win Tips</t>
+          <t>33/37 Win Tips</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>89</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>1.83</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Fulham v Arsenal</t>
+          <t>Marseille v Le Havre</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>England Premier League</t>
+          <t>France Ligue 1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-10-18T16:30:00.000Z</t>
+          <t>2025-10-18T19:05:00.000Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>39/52 Win Tips</t>
+          <t>30/31 Win Tips</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>97</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>1.38</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Coventry v Blackburn</t>
+          <t>Atletico Madrid v Osasuna</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>England Championship</t>
+          <t>Spain Primera Liga</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-10-18T14:00:00.000Z</t>
+          <t>2025-10-18T19:00:00.000Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>35/38 Win Tips</t>
+          <t>27/30 Win Tips</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>90</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>1.38</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sunderland v Wolverhampton</t>
+          <t>Liverpool v Man Utd</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -636,145 +636,145 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-10-18T14:00:00.000Z</t>
+          <t>2025-10-19T15:30:00.000Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>27/46 Win Tips</t>
+          <t>27/38 Win Tips</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>71</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>1.62</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Brighton v Newcastle</t>
+          <t>Leicester v Portsmouth</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Leicester</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>England Premier League</t>
+          <t>England Championship</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-10-18T14:00:00.000Z</t>
+          <t>2025-10-18T18:45:00.000Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>25/40 Win Tips</t>
+          <t>22/26 Win Tips</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>85</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>1.62</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Crystal Palace v Bournemouth</t>
+          <t>Bayern Munich v Borussia Dortmund</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>England Premier League</t>
+          <t>Germany Bundesliga I</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-10-18T14:00:00.000Z</t>
+          <t>2025-10-18T16:30:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>20/43 Win Tips</t>
+          <t>16/22 Win Tips</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>73</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>1.40</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Barcelona v Girona</t>
+          <t>Tottenham v Aston Villa</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Spain Primera Liga</t>
+          <t>England Premier League</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-10-18T14:15:00.000Z</t>
+          <t>2025-10-19T13:00:00.000Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>18/20 Win Tips</t>
+          <t>14/26 Win Tips</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>54</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>2.15</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Marseille v Le Havre</t>
+          <t>Angers v Monaco</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -784,160 +784,160 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-10-18T19:05:00.000Z</t>
+          <t>2025-10-18T17:00:00.000Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>18/18 Win Tips</t>
+          <t>13/17 Win Tips</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>76</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.60</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Liverpool v Man Utd</t>
+          <t>Dinamo Zagreb v NK Osijek</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Dinamo Zagreb</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>England Premier League</t>
+          <t>Croatia HNL</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-10-19T15:30:00.000Z</t>
+          <t>2025-10-18T16:00:00.000Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>17/25 Win Tips</t>
+          <t>12/16 Win Tips</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>75</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>1.36</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Stockport v Exeter</t>
+          <t>OH Leuven v Club Brugge</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Stockport</t>
+          <t>Club Brugge</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>England League One</t>
+          <t>Belgium First Division A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-10-18T14:00:00.000Z</t>
+          <t>2025-10-18T16:15:00.000Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>14/14 Win Tips</t>
+          <t>12/14 Win Tips</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>86</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>1.67</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Burnley v Leeds</t>
+          <t>Getafe v Real Madrid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>England Premier League</t>
+          <t>Spain Primera Liga</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-10-18T14:00:00.000Z</t>
+          <t>2025-10-19T19:00:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>14/37 Win Tips</t>
+          <t>12/12 Win Tips</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>1.45</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Cardiff v Reading</t>
+          <t>Villarreal v Real Betis</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>England League One</t>
+          <t>Spain Primera Liga</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-10-18T14:00:00.000Z</t>
+          <t>2025-10-18T16:30:00.000Z</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>13/13 Win Tips</t>
+          <t>10/10 Win Tips</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -947,108 +947,108 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>1.57</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Atletico Madrid v Osasuna</t>
+          <t>PSV v Go Ahead Eagles</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Spain Primera Liga</t>
+          <t>Netherlands Eredivisie</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-10-18T19:00:00.000Z</t>
+          <t>2025-10-18T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12/13 Win Tips</t>
+          <t>10/11 Win Tips</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>91</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>1.25</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Torino v Napoli</t>
+          <t>Union Saint Gilloise v Charleroi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Union Saint Gilloise</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Italy Serie A</t>
+          <t>Belgium First Division A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-10-18T16:00:00.000Z</t>
+          <t>2025-10-18T18:45:00.000Z</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11/13 Win Tips</t>
+          <t>10/10 Win Tips</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.45</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Getafe v Real Madrid</t>
+          <t>SK Brann v Haugesund</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>SK Brann</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Spain Primera Liga</t>
+          <t>Norway Eliteserien</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-10-19T19:00:00.000Z</t>
+          <t>2025-10-18T16:00:00.000Z</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11/11 Win Tips</t>
+          <t>9/9 Win Tips</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1058,155 +1058,155 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.11</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Charlton v Sheff Wed</t>
+          <t>Istanbul Basaksehir v Galatasaray</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>England Championship</t>
+          <t>Turkey Super Lig</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-10-18T14:00:00.000Z</t>
+          <t>2025-10-18T17:00:00.000Z</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10/14 Win Tips</t>
+          <t>9/11 Win Tips</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>82</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>1.70</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Leicester v Portsmouth</t>
+          <t>Basel v Winterthur</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>Basel</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>England Championship</t>
+          <t>Switzerland Super League</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-10-18T18:45:00.000Z</t>
+          <t>2025-10-18T16:00:00.000Z</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10/12 Win Tips</t>
+          <t>7/8 Win Tips</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>88</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>1.27</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Accrington Stanley v Swindon</t>
+          <t>Slavia Prague v FC Zlin</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Swindon</t>
+          <t>Slavia Prague</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>England League Two</t>
+          <t>Czech Republic First League</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-10-18T14:00:00.000Z</t>
+          <t>2025-10-18T16:00:00.000Z</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>9/9 Win Tips</t>
+          <t>6/8 Win Tips</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>75</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.18</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Angers v Monaco</t>
+          <t>Roma v Inter Milan</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>France Ligue 1</t>
+          <t>Italy Serie A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-10-18T17:00:00.000Z</t>
+          <t>2025-10-18T18:45:00.000Z</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>9/12 Win Tips</t>
+          <t>6/14 Win Tips</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>43</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>3.30</t>
         </is>
       </c>
     </row>
